--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/36_Hakkari_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/36_Hakkari_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6928AE-CE69-4409-AB98-BFBBBB754633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5962E2CE-9F9C-4B37-A3F1-9DFE60642321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{D668B84B-D16E-42E8-AC77-03B001E62570}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{8ACC92BE-B2DC-4DDD-8EE0-BD648C5E9013}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="125" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{4E465030-532A-46FA-9B36-8AE9FFDBB878}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CAB1AD7F-09CD-4AE2-ADC1-4262FD6B2D3C}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{FE5FF3A0-FD81-40E7-BF4A-1E6A96969F71}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{7C1F67EB-3F30-470F-9A90-FDCF9EB7B568}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{4C19719A-1095-4AA4-BB83-B235BBD49D0C}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{CA7C63EB-F42E-4382-8C73-EF20C59F1899}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{F937A373-87A9-479C-B99E-CC7A3C952DE5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F43577FB-FBD4-45EE-A2CF-809EE50054E9}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{DB447901-F1FC-4605-9CF1-ACC96636AEF6}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{25264C6D-5631-4F37-9552-80D1433C065A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D916367D-5B21-4B57-AEFD-8838217BC013}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{66A04074-26EC-49E6-B92D-8DFA5201CCB3}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{128A4000-331F-48C8-B9A1-8B4368E68F8B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{3C54296B-5A31-468B-B1C5-93CE172EA7D0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FD0BFE-AA62-442A-8373-87E96546174F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F06CA8-D8DE-4A69-B00B-54AD0D3246B0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2551,7 +2551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CCD937-0229-442B-8019-7A51FAD3474C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541B3C1A-02D1-44B7-921F-9F1887A0A5C1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3768,7 +3768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E185C5F-BD79-4E56-B5B1-9DE551AD0B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90073BE-ECED-49D2-BE72-D2EFCAD7CDE8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4985,7 +4985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CC1A7B-4A96-4C1A-9414-AA84FB0BFCDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6111D8-69A8-48D5-B6DD-2BDC5C865A0E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6194,7 +6194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C509C6E-6F3F-4C1F-AB7D-9B6B3446F4E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C403660-3AFA-4ED5-A7AA-A1295250FDE3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7447,7 +7447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35686674-CE2D-458F-AAFA-A6D295470890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4D99EB-A053-42D0-928E-E3C2860AE7C8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8700,7 +8700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E04D6-D384-4096-8DC1-ACA36731F6BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7A7412-39E2-4B19-8094-16BC33EDF746}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9953,7 +9953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED558139-ED83-4923-8599-35D061C2C636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344CEA54-863E-4F4C-976A-A2A71A2C8AD5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11206,7 +11206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92A6FD4-F419-4A1F-B655-ED1E2B8FBFCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D175CF4-D598-4C06-8C0B-0CB300DFF905}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12455,7 +12455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EC1AA3-AF4E-4EE3-8159-07E03A77383A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787EBA68-643A-4DF6-8F7C-247FE5717764}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13692,7 +13692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C1138E-4168-4C53-A897-9E8D8CCEB3C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509065A1-4BC4-4F5B-8CA7-CE9E2C57EA05}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14929,7 +14929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1961C028-41C4-4ECF-B9C8-069E9F4360C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6909F98D-0CA3-46BF-A2BE-190A2A1A2523}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
